--- a/medicine/Enfance/Lionel_Koechlin/Lionel_Koechlin.xlsx
+++ b/medicine/Enfance/Lionel_Koechlin/Lionel_Koechlin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lionel Koechlin (prononcé ke'klɛ̃ ; né le 6 juin 1948 à Paris) est un auteur-illustrateur français.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Paris, Lionel Koechlin a fait des études d'art et travaille dans la presse, la publicité et l'édition. Il a publié plus de cent ouvrages illustrés depuis 1973, pour adultes et pour la jeunesse.
 Il est le frère de Philippe Koechlin (1938-1996), journaliste et réalisateur.
-En 1991, il obtient la "Mention" Premio Grafico Fiera di Bologna per l'Infanzia de  la Foire du livre de jeunesse de Bologne[1] (Italie) pour son ouvrage jeunesse  Le yéti qui n'aimait pas le ski. En 1998, à cette même Foire du livre de jeunesse de Bologne, il est récompensé de la "Mention" Fiction Young Adults, pour l'ouvrage Chat et chien dans Paris[2], qu'il a réalisé avec son frère Philippe Koechlin.
+En 1991, il obtient la "Mention" Premio Grafico Fiera di Bologna per l'Infanzia de  la Foire du livre de jeunesse de Bologne (Italie) pour son ouvrage jeunesse  Le yéti qui n'aimait pas le ski. En 1998, à cette même Foire du livre de jeunesse de Bologne, il est récompensé de la "Mention" Fiction Young Adults, pour l'ouvrage Chat et chien dans Paris, qu'il a réalisé avec son frère Philippe Koechlin.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1973 : Les Mémoires du colonel jardinier (qui exprime les goûts pacifistes de l'auteur, le colonel présentant une certaine ressemblance avec le Charles de Gaulle|général de Gaulle) ;
 1974 : Les Musiciens de la noce ;
@@ -654,7 +670,9 @@
           <t>Autres travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lionel Koechlin a illustré la pochette du 30 cm (33t)  Duke (1980) du groupe Genesis, comme le même moyen[Quoi ?] du alphabet d'Albert.
 Prix international de la meilleure affiche pour l'affiche du film Tango de Patrice Leconte, présenté au festival de Cannes en 1994.</t>
